--- a/엑셀/함수_VHlookup_판매일보.xlsx
+++ b/엑셀/함수_VHlookup_판매일보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019합본호개정판\Data\3장\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kjw\QGIS\엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00F246CA-D9CB-48D4-ABD2-DB7347FB6B52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47D569F-4849-4610-9000-FF6F88DE8453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="판매일보" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>AB101</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -516,16 +522,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -540,10 +546,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -870,36 +876,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -913,7 +919,10 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="20" t="str">
+        <f>VLOOKUP(B3,$I$8:$K$12, 2)</f>
+        <v>ㄱ자책상</v>
+      </c>
       <c r="D3" s="22"/>
       <c r="E3" s="1">
         <v>300</v>
@@ -946,7 +955,10 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="20" t="str">
+        <f t="shared" ref="C4:C19" si="1">VLOOKUP(B4,$I$8:$K$12, 2)</f>
+        <v>L자형책상</v>
+      </c>
       <c r="D4" s="21"/>
       <c r="E4" s="1">
         <v>80</v>
@@ -979,7 +991,10 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>L자형책상</v>
+      </c>
       <c r="D5" s="21"/>
       <c r="E5" s="1">
         <v>60</v>
@@ -997,7 +1012,10 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>일자형책상</v>
+      </c>
       <c r="D6" s="21"/>
       <c r="E6" s="1">
         <v>300</v>
@@ -1018,7 +1036,10 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>ㄱ자책상</v>
+      </c>
       <c r="D7" s="21"/>
       <c r="E7" s="1">
         <v>60</v>
@@ -1045,7 +1066,10 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>일자형책상</v>
+      </c>
       <c r="D8" s="21"/>
       <c r="E8" s="1">
         <v>210</v>
@@ -1072,7 +1096,10 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>일자형책상</v>
+      </c>
       <c r="D9" s="21"/>
       <c r="E9" s="1">
         <v>120</v>
@@ -1099,7 +1126,10 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>일자형책상</v>
+      </c>
       <c r="D10" s="21"/>
       <c r="E10" s="1">
         <v>110</v>
@@ -1126,7 +1156,10 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>L자형책상</v>
+      </c>
       <c r="D11" s="21"/>
       <c r="E11" s="1">
         <v>200</v>
@@ -1153,7 +1186,10 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>ㄱ자책상</v>
+      </c>
       <c r="D12" s="21"/>
       <c r="E12" s="1">
         <v>100</v>
@@ -1180,7 +1216,10 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>일자형책상</v>
+      </c>
       <c r="D13" s="21"/>
       <c r="E13" s="1">
         <v>210</v>
@@ -1198,7 +1237,10 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>일자형책상</v>
+      </c>
       <c r="D14" s="21"/>
       <c r="E14" s="1">
         <v>120</v>
@@ -1216,7 +1258,10 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>일자형책상</v>
+      </c>
       <c r="D15" s="21"/>
       <c r="E15" s="1">
         <v>20</v>
@@ -1234,7 +1279,10 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>ㄱ자책상</v>
+      </c>
       <c r="D16" s="21"/>
       <c r="E16" s="1">
         <v>50</v>
@@ -1252,7 +1300,10 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>ㄱ자책상</v>
+      </c>
       <c r="D17" s="21"/>
       <c r="E17" s="1">
         <v>20</v>
@@ -1270,7 +1321,10 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>일자형책상</v>
+      </c>
       <c r="D18" s="21"/>
       <c r="E18" s="1">
         <v>180</v>
@@ -1288,7 +1342,10 @@
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>ㄱ자책상</v>
+      </c>
       <c r="D19" s="21"/>
       <c r="E19" s="1">
         <v>20</v>
@@ -1300,7 +1357,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:G19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G19">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="1">

--- a/엑셀/함수_VHlookup_판매일보.xlsx
+++ b/엑셀/함수_VHlookup_판매일보.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kjw\QGIS\엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47D569F-4849-4610-9000-FF6F88DE8453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6261BCA0-78CE-4B69-ADE6-B87DC7FCDF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="판매일보" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">판매일보!$A$2:$G$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>AB101</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -205,6 +209,9 @@
   <si>
     <t>사이드책상</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L자형책상</t>
   </si>
 </sst>
 </file>
@@ -475,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -506,9 +513,6 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,12 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -861,7 +859,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,39 +874,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -919,32 +917,38 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20" t="str">
+      <c r="C3" s="19" t="str">
         <f>VLOOKUP(B3,$I$8:$K$12, 2)</f>
         <v>ㄱ자책상</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="19">
+        <f>VLOOKUP(B3,$I$8:$K$12, 3)</f>
+        <v>180000</v>
+      </c>
       <c r="E3" s="1">
         <v>300</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="11">
+      <c r="F3" s="20">
+        <f>HLOOKUP(E3,$J$3:$M$4, 2, TRUE)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G19" si="0">D3*(1-F3)*E3</f>
+        <v>43200000</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="12">
         <v>0</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <v>50</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="15">
         <v>100</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <v>200</v>
       </c>
     </row>
@@ -955,20 +959,26 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20" t="str">
+      <c r="C4" s="19" t="str">
         <f t="shared" ref="C4:C19" si="1">VLOOKUP(B4,$I$8:$K$12, 2)</f>
         <v>L자형책상</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="19">
+        <f t="shared" ref="D4:D19" si="2">VLOOKUP(B4,$I$8:$K$12, 3)</f>
+        <v>110000</v>
+      </c>
       <c r="E4" s="1">
         <v>80</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11">
+      <c r="F4" s="20">
+        <f t="shared" ref="F4:F19" si="3">HLOOKUP(E4,$J$3:$M$4, 2, TRUE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="19" t="s">
+        <v>8360000</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="4">
@@ -991,18 +1001,24 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20" t="str">
+      <c r="C5" s="19" t="str">
         <f t="shared" si="1"/>
         <v>L자형책상</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="19">
+        <f t="shared" si="2"/>
+        <v>110000</v>
+      </c>
       <c r="E5" s="1">
         <v>60</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11">
+      <c r="F5" s="20">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6270000</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1012,18 +1028,24 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>일자형책상</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="19">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
       <c r="E6" s="1">
         <v>300</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11">
+      <c r="F6" s="20">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20400000</v>
       </c>
       <c r="I6" t="s">
         <v>37</v>
@@ -1036,26 +1058,32 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20" t="str">
+      <c r="C7" s="19" t="str">
         <f t="shared" si="1"/>
         <v>ㄱ자책상</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="19">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
       <c r="E7" s="1">
         <v>60</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11">
+      <c r="F7" s="20">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="18" t="s">
+        <v>10260000</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1066,20 +1094,26 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="19" t="str">
         <f t="shared" si="1"/>
         <v>일자형책상</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="19">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
       <c r="E8" s="1">
         <v>210</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11">
+      <c r="F8" s="20">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="13" t="s">
+        <v>14280000</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1096,20 +1130,26 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f t="shared" si="1"/>
         <v>일자형책상</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="19">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
       <c r="E9" s="1">
         <v>120</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11">
+      <c r="F9" s="20">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="14" t="s">
+        <v>9180000</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1126,20 +1166,26 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20" t="str">
+      <c r="C10" s="19" t="str">
         <f t="shared" si="1"/>
         <v>일자형책상</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="19">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
       <c r="E10" s="1">
         <v>110</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11">
+      <c r="F10" s="20">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="14" t="s">
+        <v>8415000</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1156,20 +1202,26 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="20" t="str">
+      <c r="C11" s="19" t="str">
         <f t="shared" si="1"/>
         <v>L자형책상</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="19">
+        <f t="shared" si="2"/>
+        <v>110000</v>
+      </c>
       <c r="E11" s="1">
         <v>200</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11">
+      <c r="F11" s="20">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="14" t="s">
+        <v>17600000</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1186,20 +1238,26 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="20" t="str">
+      <c r="C12" s="19" t="str">
         <f t="shared" si="1"/>
         <v>ㄱ자책상</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="19">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
       <c r="E12" s="1">
         <v>100</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="F12" s="20">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="15" t="s">
+        <v>16200000</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -1216,18 +1274,24 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="20" t="str">
+      <c r="C13" s="19" t="str">
         <f t="shared" si="1"/>
         <v>일자형책상</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="19">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
       <c r="E13" s="1">
         <v>210</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11">
+      <c r="F13" s="20">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14280000</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1237,18 +1301,24 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="20" t="str">
+      <c r="C14" s="19" t="str">
         <f t="shared" si="1"/>
         <v>일자형책상</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="19">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
       <c r="E14" s="1">
         <v>120</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11">
+      <c r="F14" s="20">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9180000</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1258,18 +1328,24 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="19" t="str">
         <f t="shared" si="1"/>
         <v>일자형책상</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="19">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
       <c r="E15" s="1">
         <v>20</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11">
+      <c r="F15" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1279,18 +1355,24 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="20" t="str">
+      <c r="C16" s="19" t="str">
         <f t="shared" si="1"/>
         <v>ㄱ자책상</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="19">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
       <c r="E16" s="1">
         <v>50</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11">
+      <c r="F16" s="20">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8550000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1300,18 +1382,24 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20" t="str">
+      <c r="C17" s="19" t="str">
         <f t="shared" si="1"/>
         <v>ㄱ자책상</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="19">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
       <c r="E17" s="1">
         <v>20</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11">
+      <c r="F17" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1321,18 +1409,24 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="20" t="str">
+      <c r="C18" s="19" t="str">
         <f t="shared" si="1"/>
         <v>일자형책상</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="19">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
       <c r="E18" s="1">
         <v>180</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11">
+      <c r="F18" s="20">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13770000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1342,21 +1436,28 @@
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="20" t="str">
+      <c r="C19" s="19" t="str">
         <f t="shared" si="1"/>
         <v>ㄱ자책상</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="19">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
       <c r="E19" s="1">
         <v>20</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11">
+      <c r="F19" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3600000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G19">
     <sortCondition ref="A2"/>
   </sortState>
@@ -1367,4 +1468,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD617583-6B3E-45CF-99CD-58242ABE4A03}">
+  <dimension ref="B3:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="19">
+        <v>110000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>80</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="10">
+        <v>8360000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="19">
+        <v>110000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="10">
+        <v>6270000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="19">
+        <v>110000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>200</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>17600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>